--- a/progit.xlsx
+++ b/progit.xlsx
@@ -2552,9 +2552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>253080</xdr:colOff>
+      <xdr:colOff>252720</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2568,7 +2568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="220320" y="1303920"/>
-          <a:ext cx="5265000" cy="2930040"/>
+          <a:ext cx="5264640" cy="2929680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2589,9 +2589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>197280</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2605,7 +2605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="267120" y="17236800"/>
-          <a:ext cx="5424480" cy="2390400"/>
+          <a:ext cx="5424120" cy="2390040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2626,9 +2626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>629</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2642,7 +2642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="797760" y="99670680"/>
-          <a:ext cx="3338280" cy="2600640"/>
+          <a:ext cx="3337920" cy="2600280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2663,9 +2663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>652</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2679,7 +2679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="784800" y="102738240"/>
-          <a:ext cx="3364920" cy="3273120"/>
+          <a:ext cx="3364560" cy="3272760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2701,8 +2701,8 @@
   </sheetPr>
   <dimension ref="A1:Z668"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A489" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C442" activeCellId="0" sqref="C442"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A467" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A460" activeCellId="0" sqref="A460:E479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
